--- a/app/datasets/pharma_dev_reports_collection.xlsx
+++ b/app/datasets/pharma_dev_reports_collection.xlsx
@@ -2872,7 +2872,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
